--- a/DateBase/orders/Dang Nguyen_2024-11-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-6.xlsx
@@ -1235,6 +1235,9 @@
       <c r="G2" t="str">
         <v>0101010922664214238151176631530155203051051551020532081510251555123555281548105101010252020510940715654122510103050401010171752055517510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
